--- a/bots/crawl_ch/output/clothes_2022-07-15.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-07-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:O130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,50 +511,80 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3404678006</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Unser Naturpflege-Sortiment</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>Naturaline Herren Boxer schwarz M</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-boxer-schwarz-m/p/3404678006</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Naturaline Herren Boxer schwarz M 50% Aktion 9.45 Schweizer Franken statt 18.95 Schweizer Franken</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6365819005</t>
+          <t>6365980010</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Naturaline Herren Sneaker Casual Duo Weiss 40 - 42</t>
+          <t>Naturaline Herren Socken Glatt Duo Schwarz 43 - 45</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-sneaker-casual-duo-weiss-40-42/p/6365819005</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-schwarz-43-45/p/6365980010</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -563,7 +593,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -577,32 +607,36 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Naturaline Herren Sneaker Casual Duo Weiss 40 - 42 8.95 Schweizer Franken</t>
+          <t>Naturaline Herren Socken Glatt Duo Schwarz 43 - 45 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6365980012</t>
+          <t>3668130001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45</t>
+          <t>Prix Garantie Söckli Box one size natura</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-weiss-43-45/p/6365980012</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/prix-garantie-soeckli-box-one-size-natura/p/3668130001</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>0</v>
@@ -614,13 +648,29 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.49/1ST</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
@@ -628,35 +678,37 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45 9.95 Schweizer Franken</t>
+          <t>Prix Garantie Söckli Box one size natura 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6031467017</t>
+          <t>6365819004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz M</t>
+          <t>Naturaline Herren Sneaker Casual Duo Schwarz 43 - 45</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-m/p/6031467017</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-sneaker-casual-duo-schwarz-43-45/p/6365819004</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -665,7 +717,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -674,42 +726,46 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz M 24.95 Schweizer Franken</t>
+          <t>Naturaline Herren Sneaker Casual Duo Schwarz 43 - 45 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3875554005</t>
+          <t>3500481002</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Naturaline Büstier schwarz M</t>
+          <t>Prix Garantie Knie. Box one size natural</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-buestier-schwarz-m/p/3875554005</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/prix-garantie-knie-box-one-size-natural/p/3500481002</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -718,43 +774,59 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.44/1ST</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Naturaline Büstier schwarz M 14.95 Schweizer Franken</t>
+          <t>Prix Garantie Knie. Box one size natural 2.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3305484006</t>
+          <t>3404678008</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip schwarz L</t>
+          <t>Naturaline Herren Boxer schwarz XL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-schwarz-l/p/3305484006</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-boxer-schwarz-xl/p/3404678008</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -769,7 +841,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -783,35 +855,37 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip schwarz L 7.95 Schweizer Franken</t>
+          <t>Naturaline Herren Boxer schwarz XL 49% Aktion 9.50 Schweizer Franken statt 18.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3305289015</t>
+          <t>3305779006</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss L</t>
+          <t>Naturaline Damen Panty L schwarz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-l/p/3305289015</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-l-schwarz/p/3305779006</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -834,35 +908,37 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss L 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen Panty L schwarz 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6031467006</t>
+          <t>3404678007</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss S</t>
+          <t>Naturaline Herren Boxer schwarz L</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-s/p/6031467006</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-boxer-schwarz-l/p/3404678007</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -871,7 +947,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>9.45</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -880,34 +956,34 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss S 24.95 Schweizer Franken</t>
+          <t>Naturaline Herren Boxer schwarz L 50% Aktion 9.45 Schweizer Franken statt 18.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6031467010</t>
+          <t>6365813009</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL</t>
+          <t>Naturaline Damen Sneaker Basic Duo Weiss 35 - 38</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-xxl/p/6031467010</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-damen-sneaker-basic-duo-weiss-35-38/p/6365813009</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -922,7 +998,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -931,49 +1007,51 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL 24.95 Schweizer Franken</t>
+          <t>Naturaline Damen Sneaker Basic Duo Weiss 35 - 38 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6075745013</t>
+          <t>3305779005</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Noir  8.5 - 9</t>
+          <t>Naturaline Damen Panty M schwarz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-noir-85-9/p/6075745013</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-m-schwarz/p/3305779005</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -982,34 +1060,34 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Noir  8.5 - 9 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+          <t>Naturaline Damen Panty M schwarz 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6075749001</t>
+          <t>6365813007</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Hasel  11 - 12</t>
+          <t>Naturaline Damen Sneaker Basic Duo Schwarz 35 - 38</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-hasel-11-12/p/6075749001</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-damen-sneaker-basic-duo-schwarz-35-38/p/6365813007</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1019,12 +1097,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1033,87 +1111,107 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Hasel  11 - 12 50% Aktion 1.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
+          <t>Naturaline Damen Sneaker Basic Duo Schwarz 35 - 38 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3875554009</t>
+          <t>6077152004</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Naturaline Büstier weiss L</t>
+          <t>Avela Kniestrumpf Pure Natural One Size</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-buestier-weiss-l/p/3875554009</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-kniestrumpf-pure-natural-one-size/p/6077152004</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1.63/1ST</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Naturaline Büstier weiss L 14.95 Schweizer Franken</t>
+          <t>Avela Kniestrumpf Pure Natural One Size 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3305289016</t>
+          <t>3404677007</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss XL</t>
+          <t>Naturaline Herren Slip schwarz L</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-xl/p/3305289016</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-schwarz-l/p/3404677007</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1121,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1130,7 +1228,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1144,108 +1242,108 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss XL 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren Slip schwarz L 50% Aktion 7.45 Schweizer Franken statt 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6866483</t>
+          <t>3668130002</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tena Silhouette waschbarer Inko-Slip M</t>
+          <t>Prix Garantie Söckli Box one size noir</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/tena-silhouette-waschbarer-inko-slip-m/p/6866483</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/prix-garantie-soeckli-box-one-size-noir/p/3668130002</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.49/1ST</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>1ST</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Tena</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>34.95/1ST</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Tena Silhouette waschbarer Inko-Slip M 34.95 Schweizer Franken</t>
+          <t>Prix Garantie Söckli Box one size noir 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3305779007</t>
+          <t>6365813010</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Naturaline Damen Panty S weiss</t>
+          <t>Naturaline Damen Sneaker Basic Duo Weiss 39 - 41</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-s-weiss/p/3305779007</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-damen-sneaker-basic-duo-weiss-39-41/p/6365813010</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1254,7 +1352,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1263,75 +1361,55 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Naturaline Damen Panty S weiss 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen Sneaker Basic Duo Weiss 39 - 41 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6077158004</t>
+          <t>6365813008</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Avela Söckchen Ideal Hasel One Size</t>
+          <t>Naturaline Damen Sneaker Basic Duo Schwarz 39 - 41</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-ideal-hasel-one-size/p/6077158004</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-damen-sneaker-basic-duo-schwarz-39-41/p/6365813008</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2.48/1ST</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
@@ -1339,115 +1417,99 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Avela Söckchen Ideal Hasel One Size 4.95 Schweizer Franken</t>
+          <t>Naturaline Damen Sneaker Basic Duo Schwarz 39 - 41 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6077154004</t>
+          <t>3404677008</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Avela Söckchen Pure Natural One Size</t>
+          <t>Naturaline Herren Slip schwarz XL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-pure-natural-one-size/p/6077154004</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-schwarz-xl/p/3404677008</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>1.48/1ST</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Avela Söckchen Pure Natural One Size 2.95 Schweizer Franken</t>
+          <t>Naturaline Herren Slip schwarz XL 50% Aktion 7.45 Schweizer Franken statt 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6075749003</t>
+          <t>6365980009</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Noir  11 - 12</t>
+          <t>Naturaline Herren Socken Glatt Duo Schwarz 40 - 42</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-noir-11-12/p/6075749003</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-schwarz-40-42/p/6365980009</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -1456,124 +1518,128 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Noir  11 - 12 50% Aktion 1.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
+          <t>Naturaline Herren Socken Glatt Duo Schwarz 40 - 42 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5796044003</t>
+          <t>6077158005</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Taschenschirm türkis gepunktet</t>
+          <t>Avela Söckchen Ideal Natural One Size</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-tuerkis-gepunktet/p/5796044003</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-ideal-natural-one-size/p/6077158005</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>4</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2.48/1ST</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Taschenschirm türkis gepunktet 14.95 Schweizer Franken</t>
+          <t>Avela Söckchen Ideal Natural One Size 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6866484</t>
+          <t>3305779009</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tena Silhouette waschbarer Inko-Slip L</t>
+          <t>Naturaline Damen Panty L weiss</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/tena-silhouette-waschbarer-inko-slip-l/p/6866484</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-l-weiss/p/3305779009</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Tena</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>34.95/1ST</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
@@ -1581,37 +1647,35 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Tena Silhouette waschbarer Inko-Slip L 34.95 Schweizer Franken</t>
+          <t>Naturaline Damen Panty L weiss 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4091029003</t>
+          <t>6365978009</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Euro 35 - 38</t>
+          <t>Naturaline Damen Socken Glatt Duo Schwarz 35 - 38</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-euro-35-38/p/4091029003</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-damen-socken-glatt-duo-schwarz-35-38/p/6365978009</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1620,7 +1684,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -1634,35 +1698,37 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Euro 35 - 38 5.50 Schweizer Franken</t>
+          <t>Naturaline Damen Socken Glatt Duo Schwarz 35 - 38 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4091029004</t>
+          <t>3450446007</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Euro 39 - 41</t>
+          <t>Naturaline Herren Shirt schwarz L</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-euro-39-41/p/4091029004</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-l/p/3450446007</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1671,7 +1737,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1680,42 +1746,40 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Euro 39 - 41 5.50 Schweizer Franken</t>
+          <t>Naturaline Herren Shirt schwarz L 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4091029007</t>
+          <t>3305484009</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Noir 35 - 38</t>
+          <t>Naturaline Damen Slip weiss L</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-noir-35-38/p/4091029007</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-weiss-l/p/3305484009</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1724,7 +1788,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -1733,42 +1797,40 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Noir 35 - 38 5.50 Schweizer Franken</t>
+          <t>Naturaline Damen Slip weiss L 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4091029008</t>
+          <t>3450446008</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Noir 39 - 41</t>
+          <t>Naturaline Herren Shirt schwarz XL</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-noir-39-41/p/4091029008</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-xl/p/3450446008</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="n">
-        <v>2</v>
-      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1777,7 +1839,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -1786,122 +1848,100 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Noir 39 - 41 5.50 Schweizer Franken</t>
+          <t>Naturaline Herren Shirt schwarz XL 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6077154003</t>
+          <t>3450446006</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Avela Söckchen Pure Hasel One Size</t>
+          <t>Naturaline Herren Shirt schwarz M</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-pure-hasel-one-size/p/6077154003</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-m/p/3450446006</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>1.48/1ST</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Avela Söckchen Pure Hasel One Size 2.95 Schweizer Franken</t>
+          <t>Naturaline Herren Shirt schwarz M 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6075681007</t>
+          <t>3404677006</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  10 - 10.5</t>
+          <t>Naturaline Herren Slip schwarz M</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-10-105/p/6075681007</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-schwarz-m/p/3404677006</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -1910,42 +1950,46 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  10 - 10.5 6.95 Schweizer Franken</t>
+          <t>Naturaline Herren Slip schwarz M 50% Aktion 7.45 Schweizer Franken statt 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6075681008</t>
+          <t>6077152005</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  11 - 12</t>
+          <t>Avela Kniestrumpf Pure Noir One Size</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-11-12/p/6075681008</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-kniestrumpf-pure-noir-one-size/p/6077152005</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E28" t="n">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1954,13 +1998,29 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1.63/1ST</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M28" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
@@ -1968,29 +2028,29 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  11 - 12 6.95 Schweizer Franken</t>
+          <t>Avela Kniestrumpf Pure Noir One Size 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6075681005</t>
+          <t>6365819006</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  8.5 - 9</t>
+          <t>Naturaline Herren Sneaker Casual Duo Weiss 43 - 45</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-85-9/p/6075681005</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-sneaker-casual-duo-weiss-43-45/p/6365819006</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -2000,12 +2060,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -2014,34 +2074,34 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  8.5 - 9 6.95 Schweizer Franken</t>
+          <t>Naturaline Herren Sneaker Casual Duo Weiss 43 - 45 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6075681006</t>
+          <t>6365978010</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  9.5</t>
+          <t>Women's socks Duo Glatt 39-41 schwarz</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-95/p/6075681006</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/women-s-socks-duo-glatt-39-41-schwarz/p/6365978010</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -2051,12 +2111,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -2065,37 +2125,41 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  9.5 6.95 Schweizer Franken</t>
+          <t>Women's socks Duo Glatt 39-41 schwarz 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6075681011</t>
+          <t>6077152003</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  10 - 10.5</t>
+          <t>Avela Kniestrumpf Pure Hasel One Size</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-10-105/p/6075681011</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-kniestrumpf-pure-hasel-one-size/p/6077152003</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E31" t="n">
         <v>1</v>
       </c>
@@ -2109,13 +2173,29 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1.63/1ST</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M31" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
@@ -2123,29 +2203,29 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  10 - 10.5 6.95 Schweizer Franken</t>
+          <t>Avela Kniestrumpf Pure Hasel One Size 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6075681012</t>
+          <t>6031467020</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  11 - 12</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz XXL</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-11-12/p/6075681012</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-xxl/p/6031467020</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -2155,12 +2235,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -2169,49 +2249,51 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  11 - 12 6.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz XXL 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6075681009</t>
+          <t>3404678005</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  8.5 - 9</t>
+          <t>Naturaline Herren Boxer schwarz S</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-85-9/p/6075681009</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-boxer-schwarz-s/p/3404678005</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>9.45</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -2220,34 +2302,34 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  8.5 - 9 6.95 Schweizer Franken</t>
+          <t>Naturaline Herren Boxer schwarz S 50% Aktion 9.45 Schweizer Franken statt 18.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6075681010</t>
+          <t>3305779008</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  9.5</t>
+          <t>Naturaline Damen Panty M weiss</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-95/p/6075681010</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-m-weiss/p/3305779008</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -2257,12 +2339,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -2271,40 +2353,42 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  9.5 6.95 Schweizer Franken</t>
+          <t>Naturaline Damen Panty M weiss 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6075681015</t>
+          <t>6075745007</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  10 - 10.5</t>
+          <t>Avela Strumpfhose Madame Hasel  10 - 10.5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-10-105/p/6075681015</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-10-105/p/6075745007</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2313,7 +2397,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -2327,29 +2411,29 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  10 - 10.5 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Hasel  10 - 10.5 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6075681016</t>
+          <t>6075749002</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  11 - 12</t>
+          <t>Avela Strumpfhose Top Size Hasel  13 - 14</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-11-12/p/6075681016</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-hasel-13-14/p/6075749002</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -2364,7 +2448,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -2378,29 +2462,29 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  11 - 12 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Size Hasel  13 - 14 50% Aktion 1.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6075681013</t>
+          <t>6365819003</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  8.5 - 9</t>
+          <t>Naturaline Herren Sneaker Casual Duo Schwarz 40 - 42</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-85-9/p/6075681013</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-sneaker-casual-duo-schwarz-40-42/p/6365819003</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -2410,12 +2494,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -2424,51 +2508,49 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  8.5 - 9 6.95 Schweizer Franken</t>
+          <t>Naturaline Herren Sneaker Casual Duo Schwarz 40 - 42 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6075681014</t>
+          <t>6031467007</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  9.5</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss M</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-95/p/6075681014</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-m/p/6031467007</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="n">
-        <v>1</v>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -2477,34 +2559,34 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  9.5 6.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss M 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6075745018</t>
+          <t>6075749004</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame 9- nomade</t>
+          <t>Avela Strumpfhose Top Size Noir  13 - 14</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-9-nomade/p/6075745018</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-noir-13-14/p/6075749004</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -2519,7 +2601,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -2533,29 +2615,29 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame 9- nomade 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Size Noir  13 - 14 50% Aktion 1.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6075745008</t>
+          <t>5772523002</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  11 - 12</t>
+          <t>Taschenschirm navy ecorepel</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-11-12/p/6075745008</t>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-navy-ecorepel/p/5772523002</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -2565,12 +2647,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -2579,34 +2661,34 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  11 - 12 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+          <t>Taschenschirm navy ecorepel 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6075745005</t>
+          <t>3875554006</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  8.5 - 9</t>
+          <t>Naturaline Büstier schwarz L</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-85-9/p/6075745005</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-buestier-schwarz-l/p/3875554006</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -2616,12 +2698,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -2630,34 +2712,34 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  8.5 - 9 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+          <t>Naturaline Büstier schwarz L 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6075745006</t>
+          <t>3875554008</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  9.5</t>
+          <t>Naturaline Büstier weiss M</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-95/p/6075745006</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-buestier-weiss-m/p/3875554008</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -2667,12 +2749,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -2681,37 +2763,41 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  9.5 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+          <t>Naturaline Büstier weiss M 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6075745017</t>
+          <t>6077154005</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Nomade  8.5 - 9</t>
+          <t>Avela Söckchen Pure Noir One Size</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-nomade-85-9/p/6075745017</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-pure-noir-one-size/p/6077154005</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
         <v>0</v>
@@ -2726,40 +2812,56 @@
           <t>2.95</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1.48/1ST</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Nomade  8.5 - 9 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+          <t>Avela Söckchen Pure Noir One Size 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6076125011</t>
+          <t>3305484007</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  10 - 10.5</t>
+          <t>Naturaline Damen Slip weiss S</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-10-105/p/6076125011</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-weiss-s/p/3305484007</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -2769,12 +2871,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -2783,49 +2885,51 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  10 - 10.5 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen Slip weiss S 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6076125012</t>
+          <t>6031467018</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  11 - 12</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz L</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-11-12/p/6076125012</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-l/p/6031467018</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -2834,34 +2938,34 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  11 - 12 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz L 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6076125009</t>
+          <t>6075745014</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  8.5 - 9</t>
+          <t>Avela Strumpfhose Madame Noir  9.5</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-85-9/p/6076125009</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-noir-95/p/6075745014</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -2876,7 +2980,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -2890,44 +2994,46 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  8.5 - 9 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Noir  9.5 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6076125010</t>
+          <t>3387682006</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  9.5</t>
+          <t>Naturaline Damen Shirt schwarz L</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-95/p/6076125010</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/damen-shirt/naturaline-damen-shirt-schwarz-l/p/3387682006</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -2936,51 +3042,47 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'damen-shirt']</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  9.5 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen Shirt schwarz L 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6076125015</t>
+          <t>5799901001</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  10 - 10.5</t>
+          <t>Taschenschirm Alu marine</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-10-105/p/6076125015</t>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-alu-marine/p/5799901001</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
         <v>5</v>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Avela</t>
-        </is>
-      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -2989,49 +3091,51 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  10 - 10.5 9.95 Schweizer Franken</t>
+          <t>Taschenschirm Alu marine 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6076125016</t>
+          <t>3305484005</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  11 - 12</t>
+          <t>Naturaline Damen Slip schwarz M</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-11-12/p/6076125016</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-schwarz-m/p/3305484005</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -3040,49 +3144,51 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  11 - 12 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen Slip schwarz M 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6076125013</t>
+          <t>6031467008</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  8.5 - 9</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss L</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-85-9/p/6076125013</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-l/p/6031467008</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -3091,34 +3197,34 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  8.5 - 9 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss L - Online kein Bestand 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6076125014</t>
+          <t>6075745009</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  9.5</t>
+          <t>Avela Strumpfhose Madame Natural  8.5 - 9</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-95/p/6076125014</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-natural-85-9/p/6075745009</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -3133,7 +3239,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -3147,29 +3253,29 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  9.5 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Natural  8.5 - 9 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3875554004</t>
+          <t>6075745015</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Naturaline Büstier schwarz S</t>
+          <t>Avela Strumpfhose Madame Noir  10 - 10.5</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-buestier-schwarz-s/p/3875554004</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-noir-10-105/p/6075745015</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -3179,12 +3285,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -3193,40 +3299,42 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Naturaline Büstier schwarz S 14.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Noir  10 - 10.5 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3875554007</t>
+          <t>6031467019</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Naturaline Büstier weiss S</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarzXL</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-buestier-weiss-s/p/3875554007</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarzxl/p/6031467019</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3235,7 +3343,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -3244,34 +3352,34 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Naturaline Büstier weiss S 14.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarzXL 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3305484008</t>
+          <t>6031467009</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip weiss M</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weissXL</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-weiss-m/p/3305484008</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weissxl/p/6031467009</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -3286,7 +3394,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -3295,34 +3403,34 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip weiss M 7.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weissXL - Online kein Bestand 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>4322745004</t>
+          <t>3305779004</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Naturaline Damen String schwarz L</t>
+          <t>Naturaline Damen Panty S schwarz</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-schwarz-l/p/4322745004</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-s-schwarz/p/3305779004</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -3351,50 +3459,70 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Naturaline Damen String schwarz L 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen Panty S schwarz 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>4322745002</t>
+          <t>6866453</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Naturaline Damen String schwarz S</t>
+          <t>Selenacare Menstruationsunterwäsche L</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-schwarz-s/p/4322745002</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-l/p/6866453</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Selenacare</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>24.50/1ST</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
@@ -3402,50 +3530,70 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Naturaline Damen String schwarz S 9.95 Schweizer Franken</t>
+          <t>Selenacare Menstruationsunterwäsche L 24.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>4322745007</t>
+          <t>6866452</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Naturaline Damen String weiss M</t>
+          <t>Selenacare Menstruationsunterwäsche M</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-weiss-m/p/4322745007</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-m/p/6866452</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Selenacare</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>24.50/1ST</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
@@ -3453,80 +3601,100 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Naturaline Damen String weiss M 9.95 Schweizer Franken</t>
+          <t>Selenacare Menstruationsunterwäsche M 24.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3450446005</t>
+          <t>6077158006</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Naturaline Herren Shirt schwarz S</t>
+          <t>Avela Söckchen Ideal Noir One Size</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-s/p/3450446005</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-ideal-noir-one-size/p/6077158006</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2.48/1ST</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Naturaline Herren Shirt schwarz S 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
+          <t>Avela Söckchen Ideal Noir One Size 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3404677005</t>
+          <t>6075745012</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip schwarz S</t>
+          <t>Avela Strumpfhose Madame Natural  11 - 12</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-schwarz-s/p/3404677005</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-natural-11-12/p/6075745012</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -3536,12 +3704,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>7.45</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -3550,34 +3718,34 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip schwarz S 50% Aktion 7.45 Schweizer Franken statt 14.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Natural  11 - 12 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3305289014</t>
+          <t>6365819005</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss M</t>
+          <t>Naturaline Herren Sneaker Casual Duo Weiss 40 - 42</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-m/p/3305289014</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-sneaker-casual-duo-weiss-40-42/p/6365819005</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -3592,7 +3760,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -3601,34 +3769,34 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss M 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren Sneaker Casual Duo Weiss 40 - 42 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3305289013</t>
+          <t>6365980012</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss S</t>
+          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-s/p/3305289013</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-weiss-43-45/p/6365980012</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -3652,34 +3820,34 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss S 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6365980001</t>
+          <t>6031467017</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Dunkelgrau 40 - 42</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz M</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-dunkelgrau-40-42/p/6365980001</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-m/p/6031467017</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -3694,7 +3862,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -3703,40 +3871,42 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Dunkelgrau 40 - 42 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz M 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6365980011</t>
+          <t>3875554005</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Weiss 40 - 42</t>
+          <t>Naturaline Büstier schwarz M</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-weiss-40-42/p/6365980011</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-buestier-schwarz-m/p/3875554005</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3745,7 +3915,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -3754,34 +3924,34 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Weiss 40 - 42 9.95 Schweizer Franken</t>
+          <t>Naturaline Büstier schwarz M 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6031467016</t>
+          <t>3305484006</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz S</t>
+          <t>Naturaline Damen Slip schwarz L</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-s/p/6031467016</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-schwarz-l/p/3305484006</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -3796,7 +3966,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -3805,34 +3975,34 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz S 24.95 Schweizer Franken</t>
+          <t>Naturaline Damen Slip schwarz L 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3890690001</t>
+          <t>3305289015</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Portemonnaie schwarz quer klein</t>
+          <t>Naturaline Herren Slip weiss L</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/portemonnaie/portemonnaie-schwarz-quer-klein/p/3890690001</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-l/p/3305289015</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -3840,10 +4010,14 @@
       <c r="F65" t="n">
         <v>0</v>
       </c>
-      <c r="G65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>34.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -3852,189 +4026,151 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'portemonnaie']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Portemonnaie schwarz quer klein 34.95 Schweizer Franken</t>
+          <t>Naturaline Herren Slip weiss L 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6548194</t>
+          <t>6031467006</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche S</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss S</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-s/p/6548194</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-s/p/6031467006</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Selenacare</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>24.50/1ST</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>24.95</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche S 24.50 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss S 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6866398</t>
+          <t>6031467010</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche S</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-s/p/6866398</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-xxl/p/6031467010</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Selenacare</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>24.50/1ST</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>24.95</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche S 24.50 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>5799901002</t>
+          <t>6075745013</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Taschenschirm Alu schwarz</t>
+          <t>Avela Strumpfhose Madame Noir  8.5 - 9</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-alu-schwarz/p/5799901002</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-noir-85-9/p/6075745013</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="n">
-        <v>3</v>
-      </c>
+      <c r="E68" t="inlineStr"/>
       <c r="F68" t="n">
-        <v>1</v>
-      </c>
-      <c r="G68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -4043,34 +4179,34 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Taschenschirm Alu schwarz 19.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Noir  8.5 - 9 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>5796044002</t>
+          <t>6075749001</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Taschenschirm fuchsia gepunktet</t>
+          <t>Avela Strumpfhose Top Size Hasel  11 - 12</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-fuchsia-gepunktet/p/5796044002</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-hasel-11-12/p/6075749001</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -4078,10 +4214,14 @@
       <c r="F69" t="n">
         <v>0</v>
       </c>
-      <c r="G69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -4090,42 +4230,48 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Taschenschirm fuchsia gepunktet 14.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Size Hasel  11 - 12 50% Aktion 1.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>5796044001</t>
+          <t>3875554009</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Taschenschirm sand gepunktet</t>
+          <t>Naturaline Büstier weiss L</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-sand-gepunktet/p/5796044001</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-buestier-weiss-l/p/3875554009</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
       <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr">
         <is>
           <t>14.95</t>
@@ -4137,34 +4283,34 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Taschenschirm sand gepunktet 14.95 Schweizer Franken</t>
+          <t>Naturaline Büstier weiss L 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:59</t>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>5799902001</t>
+          <t>3305289016</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Taschenschirm schwarz</t>
+          <t>Naturaline Herren Slip weiss XL</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-schwarz/p/5799902001</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-xl/p/3305289016</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -4172,12 +4318,16 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
-      </c>
-      <c r="G71" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -4186,17 +4336,3166 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Naturaline Herren Slip weiss XL 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>6866483</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Tena Silhouette waschbarer Inko-Slip M</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/tena-silhouette-waschbarer-inko-slip-m/p/6866483</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Tena</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>34.95/1ST</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Tena Silhouette waschbarer Inko-Slip M 34.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>3305779007</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Naturaline Damen Panty S weiss</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-s-weiss/p/3305779007</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>4</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Naturaline Damen Panty S weiss 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>6077158004</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Avela Söckchen Ideal Hasel One Size</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-ideal-hasel-one-size/p/6077158004</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2.48/1ST</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Avela Söckchen Ideal Hasel One Size 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>6077154004</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Avela Söckchen Pure Natural One Size</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-pure-natural-one-size/p/6077154004</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>1.48/1ST</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Avela Söckchen Pure Natural One Size 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>6075749003</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Top Size Noir  11 - 12</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-noir-11-12/p/6075749003</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Top Size Noir  11 - 12 50% Aktion 1.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>5796044003</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Taschenschirm türkis gepunktet</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-tuerkis-gepunktet/p/5796044003</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="n">
+        <v>4</v>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
           <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr">
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Taschenschirm türkis gepunktet 14.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>6866484</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Tena Silhouette waschbarer Inko-Slip L</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/tena-silhouette-waschbarer-inko-slip-l/p/6866484</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Tena</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>34.95/1ST</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Tena Silhouette waschbarer Inko-Slip L 34.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>4091029003</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Avela Socken Cotton Euro 35 - 38</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-euro-35-38/p/4091029003</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>5</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Avela Socken Cotton Euro 35 - 38 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>4091029004</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Avela Socken Cotton Euro 39 - 41</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-euro-39-41/p/4091029004</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Avela Socken Cotton Euro 39 - 41 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4091029007</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Avela Socken Cotton Noir 35 - 38</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-noir-35-38/p/4091029007</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Avela Socken Cotton Noir 35 - 38 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>4091029008</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Avela Socken Cotton Noir 39 - 41</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-noir-39-41/p/4091029008</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>2</v>
+      </c>
+      <c r="F82" t="n">
+        <v>5</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Avela Socken Cotton Noir 39 - 41 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>6077154003</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Avela Söckchen Pure Hasel One Size</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-pure-hasel-one-size/p/6077154003</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>1.48/1ST</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Avela Söckchen Pure Hasel One Size 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>6075681007</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Belform Liberty Hasel  10 - 10.5</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-10-105/p/6075681007</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>5</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Belform Liberty Hasel  10 - 10.5 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>6075681008</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Belform Liberty Hasel  11 - 12</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-11-12/p/6075681008</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>5</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Belform Liberty Hasel  11 - 12 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>6075681005</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Belform Liberty Hasel  8.5 - 9</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-85-9/p/6075681005</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Belform Liberty Hasel  8.5 - 9 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>6075681006</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Belform Liberty Hasel  9.5</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-95/p/6075681006</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Belform Liberty Hasel  9.5 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>6075681011</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Belform Liberty Natural  10 - 10.5</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-10-105/p/6075681011</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>5</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Belform Liberty Natural  10 - 10.5 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>6075681012</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Belform Liberty Natural  11 - 12</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-11-12/p/6075681012</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Belform Liberty Natural  11 - 12 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>6075681009</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Belform Liberty Natural  8.5 - 9</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-85-9/p/6075681009</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Belform Liberty Natural  8.5 - 9 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>6075681010</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Belform Liberty Natural  9.5</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-95/p/6075681010</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Belform Liberty Natural  9.5 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>6075681015</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Belform Liberty Noir  10 - 10.5</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-10-105/p/6075681015</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Belform Liberty Noir  10 - 10.5 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>6075681016</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Belform Liberty Noir  11 - 12</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-11-12/p/6075681016</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Belform Liberty Noir  11 - 12 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>6075681013</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Belform Liberty Noir  8.5 - 9</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-85-9/p/6075681013</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Belform Liberty Noir  8.5 - 9 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>6075681014</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Belform Liberty Noir  9.5</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-95/p/6075681014</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>3</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Belform Liberty Noir  9.5 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>6075745019</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Madame 10-10 1/2 nomade</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-10-10-12-nomade/p/6075745019</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Madame 10-10 1/2 nomade 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>6075745020</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Madame 11-12 nomade</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-11-12-nomade/p/6075745020</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Madame 11-12 nomade 49% Aktion 3.00 Schweizer Franken statt 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>6075745018</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Madame 9- nomade</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-9-nomade/p/6075745018</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Madame 9- nomade 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>6075745008</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Madame Hasel  11 - 12</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-11-12/p/6075745008</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Madame Hasel  11 - 12 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>6075745005</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Madame Hasel  8.5 - 9</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-85-9/p/6075745005</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Madame Hasel  8.5 - 9 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>6075745006</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Madame Hasel  9.5</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-95/p/6075745006</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Madame Hasel  9.5 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>6075745017</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Madame Nomade  8.5 - 9</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-nomade-85-9/p/6075745017</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Madame Nomade  8.5 - 9 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>6076125011</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Top Silhouette Natural  10 - 10.5</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-10-105/p/6076125011</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Top Silhouette Natural  10 - 10.5 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>6076125012</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Top Silhouette Natural  11 - 12</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-11-12/p/6076125012</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Top Silhouette Natural  11 - 12 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>6076125009</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Top Silhouette Natural  8.5 - 9</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-85-9/p/6076125009</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Top Silhouette Natural  8.5 - 9 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>6076125010</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Top Silhouette Natural  9.5</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-95/p/6076125010</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Top Silhouette Natural  9.5 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>6076125015</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Top Silhouette Noir  10 - 10.5</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-10-105/p/6076125015</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" t="n">
+        <v>5</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Top Silhouette Noir  10 - 10.5 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>6076125016</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Top Silhouette Noir  11 - 12</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-11-12/p/6076125016</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Top Silhouette Noir  11 - 12 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>6076125013</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Top Silhouette Noir  8.5 - 9</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-85-9/p/6076125013</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Top Silhouette Noir  8.5 - 9 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>6076125014</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Top Silhouette Noir  9.5</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-95/p/6076125014</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>Avela Strumpfhose Top Silhouette Noir  9.5 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>3875554004</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Naturaline Büstier schwarz S</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-buestier-schwarz-s/p/3875554004</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>Naturaline Büstier schwarz S 14.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>3875554007</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Naturaline Büstier weiss S</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-buestier-weiss-s/p/3875554007</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>Naturaline Büstier weiss S 14.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>3305484008</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Naturaline Damen Slip weiss M</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-weiss-m/p/3305484008</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>Naturaline Damen Slip weiss M 7.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>4322745004</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Naturaline Damen String schwarz L</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-schwarz-l/p/4322745004</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>Naturaline Damen String schwarz L 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>4322745002</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Naturaline Damen String schwarz S</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-schwarz-s/p/4322745002</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>Naturaline Damen String schwarz S 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>4322745007</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Naturaline Damen String weiss M</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-weiss-m/p/4322745007</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>Naturaline Damen String weiss M 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>3450446005</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Naturaline Herren Shirt schwarz S</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-s/p/3450446005</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>Naturaline Herren Shirt schwarz S 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>3404677005</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Naturaline Herren Slip schwarz S</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-schwarz-s/p/3404677005</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>Naturaline Herren Slip schwarz S 50% Aktion 7.45 Schweizer Franken statt 14.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>3305289014</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Naturaline Herren Slip weiss M</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-m/p/3305289014</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>Naturaline Herren Slip weiss M 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>3305289013</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Naturaline Herren Slip weiss S</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-s/p/3305289013</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>Naturaline Herren Slip weiss S 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>6365980001</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Naturaline Herren Socken Glatt Duo Dunkelgrau 40 - 42</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-dunkelgrau-40-42/p/6365980001</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>Naturaline Herren Socken Glatt Duo Dunkelgrau 40 - 42 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>6365980011</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Naturaline Herren Socken Glatt Duo Weiss 40 - 42</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-weiss-40-42/p/6365980011</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>Naturaline Herren Socken Glatt Duo Weiss 40 - 42 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>6031467016</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz S</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-s/p/6031467016</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>24.95</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz S 24.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>3890690001</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Portemonnaie schwarz quer klein</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/portemonnaie/portemonnaie-schwarz-quer-klein/p/3890690001</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'portemonnaie']</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>Portemonnaie schwarz quer klein 34.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>6548194</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Selenacare Menstruationsunterwäsche S</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-s/p/6548194</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Selenacare</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>24.50/1ST</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>Selenacare Menstruationsunterwäsche S 24.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>6866398</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Selenacare Menstruationsunterwäsche S</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-s/p/6866398</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Selenacare</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>24.50/1ST</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>Selenacare Menstruationsunterwäsche S 24.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>5799901002</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Taschenschirm Alu schwarz</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-alu-schwarz/p/5799901002</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="n">
+        <v>3</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>Taschenschirm Alu schwarz 19.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>5796044002</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Taschenschirm fuchsia gepunktet</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-fuchsia-gepunktet/p/5796044002</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>Taschenschirm fuchsia gepunktet 14.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>5796044001</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Taschenschirm sand gepunktet</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-sand-gepunktet/p/5796044001</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>Taschenschirm sand gepunktet 14.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>5799902001</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Taschenschirm schwarz</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-schwarz/p/5799902001</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="n">
+        <v>1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
         <is>
           <t>Taschenschirm schwarz 19.95 Schweizer Franken</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>2022-07-15 07:02:59</t>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>2022-07-15 20:58:01</t>
         </is>
       </c>
     </row>
